--- a/biology/Biologie cellulaire et moléculaire/Oktay_Sinanoğlu/Oktay_Sinanoğlu.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Oktay_Sinanoğlu/Oktay_Sinanoğlu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oktay_Sinano%C4%9Flu</t>
+          <t>Oktay_Sinanoğlu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oktay Sinanoğlu (né le 25 février 1935 à Bari en Italie et mort le 19 avril 2015 à Miami[1]) est un chimiste théoricien et biologiste moléculaire turc. Il a été le plus jeune professeur que l'université Yale ait connu au XXe siècle[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oktay Sinanoğlu (né le 25 février 1935 à Bari en Italie et mort le 19 avril 2015 à Miami) est un chimiste théoricien et biologiste moléculaire turc. Il a été le plus jeune professeur que l'université Yale ait connu au XXe siècle.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oktay_Sinano%C4%9Flu</t>
+          <t>Oktay_Sinanoğlu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Oktay Sinanoğlu a vécu pendant 12 ans à Bari où son père, Selçuk Turbil, était consul général. Mais, quand la Seconde Guerre mondiale a commencé, ils sont retournés à İstanbul. En 1953 il a étudié au lycée de Yenişehir à Ankara. Il a terminé cette école avec succès et a obtenu une bourse pour étudier la chimie aux États-Unis. Il est diplômé de l'université de Californie à Berkeley. Il a continué sa formation au Massachusetts Institute of Technology pendant 8 mois.
 En 1959, il a poursuivi des recherches au centre de l'énergie atomique aux États-Unis et il a exposé ses inventions de chimie et physique quantique à l'université Harvard et à l'université Yale. En 1962, il est devenu professeur titulaire. En 1964, il a obtenu une chaire de biologie moléculaire à l'université Yale.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oktay_Sinano%C4%9Flu</t>
+          <t>Oktay_Sinanoğlu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Théorie des électrons d'atomes et molécules (1961)
 Théorie Solvophobic (1964)
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Oktay_Sinano%C4%9Flu</t>
+          <t>Oktay_Sinanoğlu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Membre de l'Académie américaine des arts et des sciences.
 Lauréat en 1962 du prix d'Alfred Sloan.
